--- a/EXPRS/Poisson/Expr2d_1_6/Poisson_Seed_Scale_Expr1_6_6/Expr_3.xlsx
+++ b/EXPRS/Poisson/Expr2d_1_6/Poisson_Seed_Scale_Expr1_6_6/Expr_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/EXPRS/Poisson/Expr2d_1_6/Poisson_Seed_Scale_Expr1_6_6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF14367-FB17-4F46-9D77-B144D82F8BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB788A63-76A7-F54D-9355-A9A4B414B534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50280" yWindow="720" windowWidth="39060" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28760" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SET" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>epoch</t>
   </si>
@@ -595,8 +595,8 @@
   </sheetPr>
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -704,7 +704,7 @@
       </c>
       <c r="F2" s="3" t="str">
         <f>"Result/Poisson/Expr1_6_6_PINN_Seed_" &amp; TEXT(INDEX(D:D,2), "0")&amp; "_Scale coeff_"&amp;INDEX(M:M,2) &amp; "_Learn_scale_"&amp;INDEX(T:T,2)</f>
-        <v>Result/Poisson/Expr1_6_6_PINN_Seed_100_Scale coeff_1_Learn_scale_false</v>
+        <v>Result/Poisson/Expr1_6_6_PINN_Seed_100_Scale coeff_1_Learn_scale_TRUE</v>
       </c>
       <c r="G2" s="12">
         <v>1</v>
@@ -745,8 +745,8 @@
       <c r="S2" s="12">
         <v>10</v>
       </c>
-      <c r="T2" t="s">
-        <v>10</v>
+      <c r="T2" t="b">
+        <v>1</v>
       </c>
       <c r="U2" s="12">
         <v>15</v>
